--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.2171</v>
+        <v>-12.4354</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.002000000000005</v>
+        <v>6.285100000000007</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.2736</v>
+        <v>5.674000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.685200000000002</v>
+        <v>9.643800000000004</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.051600000000004</v>
+        <v>9.152900000000006</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -856,10 +856,10 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.479899999999999</v>
+        <v>5.448799999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.5964</v>
+        <v>-13.3119</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.386200000000005</v>
+        <v>4.838800000000008</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.69849999999999</v>
+        <v>-12.878</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.229500000000004</v>
+        <v>5.088300000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.1326</v>
+        <v>-13.2368</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.57810000000001</v>
+        <v>-12.56100000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.215</v>
+        <v>-11.24029999999999</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.37979999999999</v>
+        <v>-11.2826</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.14799999999999</v>
+        <v>-11.2416</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>4.759800000000001</v>
+        <v>5.0895</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.62360000000001</v>
+        <v>-13.66119999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.99469999999999</v>
+        <v>-12.79729999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1400,10 +1400,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.843599999999998</v>
+        <v>4.530799999999997</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.5317</v>
+        <v>-13.2919</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.763399999999999</v>
+        <v>4.748699999999997</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.241799999999994</v>
+        <v>5.666499999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.65520000000001</v>
+        <v>-13.06550000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.892500000000002</v>
+        <v>8.928100000000002</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.455099999999998</v>
+        <v>5.241399999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.1043</v>
+        <v>-10.6148</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.3119</v>
+        <v>-12.4586</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>4.869599999999997</v>
+        <v>4.967299999999999</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.76829999999999</v>
+        <v>-11.0035</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.963700000000001</v>
+        <v>5.760600000000002</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
